--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:37:23+00:00</t>
+    <t>2025-11-13T10:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,57 @@
     <t>Goal.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Goal.extension:referenceProjetPerso</t>
+  </si>
+  <si>
+    <t>referenceProjetPerso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-reference}
+</t>
+  </si>
+  <si>
+    <t>Lien vers le projet personnel</t>
+  </si>
+  <si>
+    <t>Liens vers le projet personnel, utilisables dans le profil TDDUIGoalObjectif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Goal.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Goal.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +480,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -509,17 +536,13 @@
     <t>Goal.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1404,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1413,9 +1436,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.52734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.38671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2356,11 +2379,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2375,17 +2398,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2422,16 +2443,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2452,7 +2471,7 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2463,43 +2482,41 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2547,7 +2564,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2556,7 +2573,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2565,7 +2582,7 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2573,45 +2590,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2660,7 +2677,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2672,16 +2689,16 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2697,7 +2714,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>87</v>
@@ -2720,8 +2737,12 @@
       <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2769,47 +2790,47 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2821,17 +2842,15 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2868,37 +2887,37 @@
         <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2906,46 +2925,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2969,49 +2986,49 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3019,10 +3036,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3039,25 +3056,25 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3082,13 +3099,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3106,7 +3123,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3121,10 +3138,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3132,10 +3149,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3158,19 +3175,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3183,43 +3200,43 @@
         <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3234,10 +3251,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3245,10 +3262,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3271,18 +3288,20 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3294,43 +3313,43 @@
         <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3345,10 +3364,10 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3356,10 +3375,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3382,15 +3401,17 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3403,7 +3424,7 @@
         <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>76</v>
@@ -3499,9 +3520,7 @@
       <c r="M19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3550,7 +3569,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3565,10 +3584,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3576,10 +3595,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3587,7 +3606,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>87</v>
@@ -3596,13 +3615,13 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>218</v>
@@ -3613,9 +3632,7 @@
       <c r="N20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3639,13 +3656,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3663,10 +3680,10 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>87</v>
@@ -3678,21 +3695,21 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3700,7 +3717,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -3709,22 +3726,26 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3748,14 +3769,14 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3772,10 +3793,10 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>87</v>
@@ -3787,21 +3808,21 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3812,7 +3833,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3824,18 +3845,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3859,14 +3878,14 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3883,13 +3902,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -3901,18 +3920,18 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3923,7 +3942,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3935,19 +3954,17 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3972,14 +3989,14 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3996,13 +4013,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4014,18 +4031,18 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4033,7 +4050,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
@@ -4048,19 +4065,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4085,13 +4102,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4109,10 +4126,10 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>87</v>
@@ -4124,21 +4141,21 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4161,17 +4178,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4196,13 +4215,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4220,7 +4239,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -4235,21 +4254,21 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4257,7 +4276,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4272,17 +4291,17 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4307,13 +4326,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4331,10 +4350,10 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -4346,21 +4365,21 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4371,7 +4390,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4380,22 +4399,20 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4420,13 +4437,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4444,36 +4461,36 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4484,7 +4501,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4496,16 +4513,20 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4553,25 +4574,25 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4579,21 +4600,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4605,17 +4626,15 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4664,25 +4683,25 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4690,14 +4709,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4710,26 +4729,24 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4777,7 +4794,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4795,7 +4812,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4803,42 +4820,46 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4862,13 +4883,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4886,25 +4907,25 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4912,10 +4933,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4938,17 +4959,15 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>300</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4973,13 +4992,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>301</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4997,7 +5016,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5006,7 +5025,7 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
@@ -5023,10 +5042,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5049,18 +5068,18 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
         <v>306</v>
       </c>
+      <c r="N33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5084,10 +5103,10 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5108,7 +5127,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5117,7 +5136,7 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
@@ -5129,15 +5148,15 @@
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5160,18 +5179,18 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="O34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5219,7 +5238,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5240,15 +5259,15 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5268,19 +5287,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5330,7 +5349,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5351,15 +5370,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5367,7 +5386,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5379,19 +5398,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5441,7 +5460,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5462,15 +5481,15 @@
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5490,21 +5509,21 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
         <v>328</v>
       </c>
+      <c r="N37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5552,13 +5571,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -5570,7 +5589,7 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>330</v>
@@ -5612,11 +5631,9 @@
       <c r="M38" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5680,21 +5697,21 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5717,7 +5734,7 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>340</v>
@@ -5754,13 +5771,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5778,7 +5795,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5793,10 +5810,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5804,10 +5821,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5830,7 +5847,7 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>182</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>347</v>
@@ -5842,7 +5859,7 @@
         <v>349</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5867,13 +5884,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -5891,7 +5908,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5912,6 +5929,119 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T10:43:15+00:00</t>
+    <t>2025-11-17T16:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -269,6 +272,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>Attente</t>
+  </si>
+  <si>
     <t>GOL.1</t>
   </si>
   <si>
@@ -466,6 +472,83 @@
 </t>
   </si>
   <si>
+    <t>Goal.extension:referenceProjetPerso.id</t>
+  </si>
+  <si>
+    <t>Goal.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Goal.extension:referenceProjetPerso.extension</t>
+  </si>
+  <si>
+    <t>Goal.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Goal.extension:referenceProjetPerso.url</t>
+  </si>
+  <si>
+    <t>Goal.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-reference</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Goal.extension:referenceProjetPerso.value[x]</t>
+  </si>
+  <si>
+    <t>Goal.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-perso)
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>ProjetPersonnalise</t>
+  </si>
+  <si>
     <t>Goal.modifierExtension</t>
   </si>
   <si>
@@ -508,6 +591,9 @@
     <t>Allows identification of the goal as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t>identifiantAttente</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
@@ -517,22 +603,6 @@
     <t>Goal.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Goal.identifier.extension</t>
   </si>
   <si>
@@ -540,12 +610,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Goal.identifier.use</t>
@@ -841,6 +905,67 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
+    <t>Goal.description.id</t>
+  </si>
+  <si>
+    <t>Goal.description.extension</t>
+  </si>
+  <si>
+    <t>Goal.description.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Goal.description.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>descriptionAttente</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Goal.subject</t>
   </si>
   <si>
@@ -1041,6 +1166,9 @@
     <t>This is the individual responsible for establishing the goal, not necessarily who recorded it.  (For that, use the Provenance resource.).</t>
   </si>
   <si>
+    <t>origineAttente</t>
+  </si>
+  <si>
     <t>FiveWs.source</t>
   </si>
   <si>
@@ -1089,6 +1217,75 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Goal.note.id</t>
+  </si>
+  <si>
+    <t>Goal.note.extension</t>
+  </si>
+  <si>
+    <t>Goal.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>Goal.note.time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Goal.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>commentaireAttente</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
   <si>
     <t>Goal.outcomeCode</t>
@@ -1427,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1436,7 +1633,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.68359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.38671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1471,9 +1668,10 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1594,6 +1792,9 @@
       <c r="AM1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1604,4445 +1805,6037 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>157</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>76</v>
+      <c r="AN32" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>314</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="O35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>152</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>330</v>
+        <v>153</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>157</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>153</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>176</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>343</v>
+        <v>177</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>76</v>
+      <c r="M42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="404">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,20 +462,71 @@
 </t>
   </si>
   <si>
-    <t>Lien vers le projet personnel</t>
-  </si>
-  <si>
-    <t>Liens vers le projet personnel, utilisables dans le profil TDDUIGoalObjectif.</t>
+    <t>Lien vers le projet personnalisé</t>
+  </si>
+  <si>
+    <t>Liens vers le projet personnalisé, utilisables dans le profil TDDUIGoalObjectif.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Goal.extension:referenceProjetPerso.id</t>
-  </si>
-  <si>
-    <t>Goal.extension.id</t>
+    <t>ProjetPersonnalise</t>
+  </si>
+  <si>
+    <t>Goal.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Goal.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiant de l'attente</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this goal by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the goal as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>identifiantAttente</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Goal.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -494,122 +545,19 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Goal.extension:referenceProjetPerso.extension</t>
-  </si>
-  <si>
-    <t>Goal.extension.extension</t>
+    <t>Goal.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Goal.extension:referenceProjetPerso.url</t>
-  </si>
-  <si>
-    <t>Goal.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-reference</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Goal.extension:referenceProjetPerso.value[x]</t>
-  </si>
-  <si>
-    <t>Goal.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-perso)
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>ProjetPersonnalise</t>
-  </si>
-  <si>
-    <t>Goal.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Goal.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiant de l'attente</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this goal by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the goal as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>identifiantAttente</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Goal.identifier.id</t>
-  </si>
-  <si>
-    <t>Goal.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Goal.identifier.use</t>
@@ -1624,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1633,7 +1581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.38671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2804,7 +2752,7 @@
         <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2818,33 +2766,33 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>150</v>
@@ -2852,8 +2800,12 @@
       <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2901,19 +2853,19 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
@@ -2922,7 +2874,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2930,7 +2882,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>155</v>
@@ -2941,10 +2893,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2956,16 +2908,20 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3001,19 +2957,19 @@
         <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3025,27 +2981,27 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3053,7 +3009,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
@@ -3068,24 +3024,22 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3127,10 +3081,10 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>89</v>
@@ -3148,7 +3102,7 @@
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3156,21 +3110,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3182,15 +3136,17 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3227,40 +3183,40 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3268,21 +3224,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3291,22 +3247,22 @@
         <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3331,13 +3287,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3355,28 +3311,28 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3384,10 +3340,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3395,7 +3351,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3407,22 +3363,22 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3447,13 +3403,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3471,13 +3427,13 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3486,24 +3442,24 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3523,19 +3479,23 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3547,7 +3507,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3583,7 +3543,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3595,16 +3555,16 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3612,21 +3572,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3635,19 +3595,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3661,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3685,40 +3645,40 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3726,10 +3686,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3746,26 +3706,22 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3789,13 +3745,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3813,7 +3769,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3831,10 +3787,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3842,10 +3798,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3868,20 +3824,18 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3905,13 +3859,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3929,7 +3883,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3947,10 +3901,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3958,10 +3912,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3969,7 +3923,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -3978,25 +3932,25 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4009,7 +3963,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -4021,13 +3975,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4045,10 +3999,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4063,21 +4017,21 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4100,17 +4054,15 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4123,7 +4075,7 @@
         <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -4135,13 +4087,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4159,7 +4111,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4177,10 +4129,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4188,10 +4140,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4202,7 +4154,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4214,16 +4166,18 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4247,13 +4201,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4271,13 +4225,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4289,21 +4243,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4326,18 +4280,20 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4361,13 +4317,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4385,7 +4341,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4403,21 +4359,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4434,25 +4390,25 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4477,13 +4433,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4501,7 +4457,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4519,21 +4475,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4553,16 +4509,16 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4589,13 +4545,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4613,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4625,7 +4581,7 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4634,7 +4590,7 @@
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4642,14 +4598,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4665,21 +4621,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4703,31 +4659,31 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4739,7 +4695,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4748,18 +4704,18 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4770,7 +4726,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4782,19 +4738,19 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4819,13 +4775,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4843,13 +4799,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4861,21 +4817,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4883,7 +4839,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -4898,19 +4854,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4935,13 +4891,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4959,10 +4915,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -4974,24 +4930,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4999,7 +4955,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5011,19 +4967,21 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5071,10 +5029,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>89</v>
@@ -5083,38 +5041,38 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5123,21 +5081,21 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5161,43 +5119,43 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5206,18 +5164,18 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5237,22 +5195,22 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5301,7 +5259,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5310,19 +5268,19 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5330,10 +5288,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5353,23 +5311,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5417,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5429,16 +5383,16 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5446,21 +5400,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5469,21 +5423,21 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5531,72 +5485,74 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>174</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5621,43 +5577,43 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5666,18 +5622,18 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5688,7 +5644,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5697,23 +5653,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5737,13 +5689,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5761,19 +5713,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5790,10 +5742,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5813,18 +5765,20 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5849,10 +5803,10 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5873,7 +5827,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5882,10 +5836,10 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5894,7 +5848,7 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5909,14 +5863,14 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5925,21 +5879,21 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>190</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5987,19 +5941,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>157</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6008,54 +5962,52 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6103,19 +6055,19 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6124,18 +6076,18 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6155,18 +6107,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6191,13 +6145,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6215,7 +6169,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6224,7 +6178,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6244,10 +6198,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6255,7 +6209,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -6270,16 +6224,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6305,32 +6259,32 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6338,13 +6292,13 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6353,15 +6307,15 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6372,7 +6326,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6381,20 +6335,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6443,13 +6397,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6464,18 +6418,18 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6486,7 +6440,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6495,21 +6449,23 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6557,13 +6513,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6575,21 +6531,21 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6612,17 +6568,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>166</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6671,7 +6625,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>168</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6683,7 +6637,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6692,7 +6646,7 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6700,21 +6654,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6723,19 +6677,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>171</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>370</v>
+        <v>152</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6773,43 +6727,43 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -6828,7 +6782,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6791,7 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>374</v>
@@ -6848,10 +6802,10 @@
       <c r="M46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6899,13 +6853,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6917,13 +6871,13 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -6942,7 +6896,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6951,7 +6905,7 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>381</v>
@@ -6962,12 +6916,8 @@
       <c r="M47" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7015,13 +6965,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7033,10 +6983,10 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7044,10 +6994,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7055,7 +7005,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7067,16 +7017,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>151</v>
+        <v>389</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7127,10 +7077,10 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>152</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>89</v>
@@ -7139,16 +7089,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>153</v>
+        <v>392</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7156,14 +7106,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7182,18 +7132,20 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>190</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>191</v>
+        <v>395</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7217,31 +7169,31 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>157</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7253,7 +7205,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7262,7 +7214,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7270,10 +7222,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7284,7 +7236,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7293,21 +7245,23 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7355,13 +7309,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7373,468 +7327,12 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1101,7 +1101,7 @@
     <t>Goal.expressedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1112,9 +1112,6 @@
   </si>
   <si>
     <t>This is the individual responsible for establishing the goal, not necessarily who recorded it.  (For that, use the Provenance resource.).</t>
-  </si>
-  <si>
-    <t>origineAttente</t>
   </si>
   <si>
     <t>FiveWs.source</t>
@@ -1161,6 +1158,10 @@
     <t>There's a need to capture information about the goal that doesn't actually describe the goal.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:extension('https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note').value}
+</t>
+  </si>
+  <si>
     <t>GOL-16-goal evaluation + NTE?</t>
   </si>
   <si>
@@ -1171,6 +1172,25 @@
   </si>
   <si>
     <t>Goal.note.extension</t>
+  </si>
+  <si>
+    <t>Goal.note.extension:TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note}
+</t>
+  </si>
+  <si>
+    <t>TDDUI Goal Note</t>
+  </si>
+  <si>
+    <t>Extension pour discriminer l'élément Goal.note.</t>
   </si>
   <si>
     <t>Goal.note.author[x]</t>
@@ -1230,10 +1250,124 @@
     <t>Annotation.text</t>
   </si>
   <si>
+    <t>Act.text</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente</t>
+  </si>
+  <si>
+    <t>origineAttente</t>
+  </si>
+  <si>
+    <t>Originie de l'attente</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.id</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.id</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.id</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.url</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.value[x]</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-note-vs</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.author[x]</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.time</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.text</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente</t>
+  </si>
+  <si>
     <t>commentaireAttente</t>
   </si>
   <si>
-    <t>Act.text</t>
+    <t>Commentaire de l'attente</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.id</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.id</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.url</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.value[x]</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.author[x]</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.time</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.text</t>
   </si>
   <si>
     <t>Goal.outcomeCode</t>
@@ -1572,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1581,9 +1715,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="62.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.89453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1591,7 +1725,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1606,9 +1740,9 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.48828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="83.765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6209,7 +6343,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -6298,24 +6432,24 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6338,17 +6472,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6397,7 +6531,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6418,18 +6552,18 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6437,7 +6571,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6452,19 +6586,19 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6501,19 +6635,17 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6661,11 +6793,11 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6683,14 +6815,12 @@
         <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6760,7 +6890,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6771,18 +6901,20 @@
         <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>375</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6791,20 +6923,18 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6853,28 +6983,28 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6882,10 +7012,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6908,15 +7038,17 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7005,7 +7137,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7080,7 +7212,7 @@
         <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>89</v>
@@ -7092,13 +7224,13 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7106,10 +7238,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7117,10 +7249,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7129,10 +7261,10 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>394</v>
@@ -7140,12 +7272,8 @@
       <c r="M49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7169,13 +7297,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7193,13 +7321,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7211,10 +7339,10 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7222,21 +7350,23 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7248,19 +7378,19 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M50" t="s" s="2">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7309,7 +7439,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7324,15 +7454,2613 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="449">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-attente.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -3601,7 +3604,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3638,10 +3641,10 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3677,7 +3680,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3695,10 +3698,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3706,10 +3709,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3717,7 +3720,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3735,13 +3738,13 @@
         <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3755,7 +3758,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3791,7 +3794,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3809,10 +3812,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3820,10 +3823,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3846,13 +3849,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3903,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3921,10 +3924,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3932,10 +3935,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3958,16 +3961,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4017,7 +4020,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4035,10 +4038,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4046,10 +4049,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4075,16 +4078,16 @@
         <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4112,10 +4115,10 @@
         <v>180</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4133,7 +4136,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>89</v>
@@ -4151,21 +4154,21 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4191,10 +4194,10 @@
         <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4224,10 +4227,10 @@
         <v>113</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4245,7 +4248,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4266,7 +4269,7 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4274,10 +4277,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4303,14 +4306,14 @@
         <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4335,13 +4338,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4359,7 +4362,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4383,15 +4386,15 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4417,16 +4420,16 @@
         <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4454,10 +4457,10 @@
         <v>113</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4475,7 +4478,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4496,18 +4499,18 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4533,16 +4536,16 @@
         <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4567,13 +4570,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4591,7 +4594,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4609,21 +4612,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4732,10 +4735,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4846,10 +4849,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4872,19 +4875,19 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4933,7 +4936,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4951,10 +4954,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4962,10 +4965,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4991,16 +4994,16 @@
         <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5049,7 +5052,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5064,13 +5067,13 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5078,10 +5081,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5104,17 +5107,17 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5163,7 +5166,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>89</v>
@@ -5181,21 +5184,21 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5218,17 +5221,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5253,13 +5256,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5277,7 +5280,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5301,15 +5304,15 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5332,19 +5335,19 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5393,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5402,10 +5405,10 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5422,10 +5425,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5534,10 +5537,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5648,14 +5651,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5677,10 +5680,10 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>152</v>
@@ -5735,7 +5738,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5764,10 +5767,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5793,10 +5796,10 @@
         <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5823,13 +5826,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5847,7 +5850,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5856,7 +5859,7 @@
         <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>101</v>
@@ -5876,10 +5879,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5902,16 +5905,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5937,10 +5940,10 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5961,7 +5964,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5970,7 +5973,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -5990,10 +5993,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6016,17 +6019,17 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6075,7 +6078,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6099,15 +6102,15 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6130,16 +6133,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6189,7 +6192,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6213,15 +6216,15 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6247,13 +6250,13 @@
         <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6303,7 +6306,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6332,10 +6335,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6358,16 +6361,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6417,7 +6420,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6441,15 +6444,15 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6472,17 +6475,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6531,7 +6534,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6552,18 +6555,18 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6586,19 +6589,19 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6635,7 +6638,7 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
@@ -6645,7 +6648,7 @@
         <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6663,10 +6666,10 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6674,10 +6677,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6786,10 +6789,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6898,13 +6901,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="C46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -6914,7 +6917,7 @@
         <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6926,13 +6929,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7012,10 +7015,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7038,16 +7041,16 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7097,7 +7100,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7118,7 +7121,7 @@
         <v>132</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7126,10 +7129,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7152,13 +7155,13 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7209,7 +7212,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7230,7 +7233,7 @@
         <v>132</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7238,10 +7241,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7264,13 +7267,13 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7321,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7342,7 +7345,7 @@
         <v>132</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7350,13 +7353,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7378,19 +7381,19 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7439,7 +7442,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7454,13 +7457,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7468,10 +7471,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7580,10 +7583,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7692,13 +7695,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7720,13 +7723,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7806,10 +7809,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7918,10 +7921,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8030,10 +8033,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8059,13 +8062,13 @@
         <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8073,7 +8076,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -8115,7 +8118,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>89</v>
@@ -8144,10 +8147,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8173,10 +8176,10 @@
         <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8188,7 +8191,7 @@
         <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>77</v>
@@ -8207,7 +8210,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8225,7 +8228,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8254,10 +8257,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8280,16 +8283,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8339,7 +8342,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8360,7 +8363,7 @@
         <v>132</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8368,10 +8371,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8394,13 +8397,13 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8451,7 +8454,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8472,7 +8475,7 @@
         <v>132</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8480,10 +8483,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8506,13 +8509,13 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8563,7 +8566,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
@@ -8584,7 +8587,7 @@
         <v>132</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8592,13 +8595,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8620,19 +8623,19 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8681,7 +8684,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8696,13 +8699,13 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8710,10 +8713,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8822,10 +8825,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8934,13 +8937,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
@@ -8962,13 +8965,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9048,10 +9051,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9160,10 +9163,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9272,10 +9275,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9301,13 +9304,13 @@
         <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9315,7 +9318,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -9357,7 +9360,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>89</v>
@@ -9386,10 +9389,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9415,10 +9418,10 @@
         <v>109</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9430,7 +9433,7 @@
         <v>77</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>77</v>
@@ -9449,7 +9452,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9467,7 +9470,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9496,10 +9499,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9522,16 +9525,16 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9581,7 +9584,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9602,7 +9605,7 @@
         <v>132</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9610,10 +9613,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9636,13 +9639,13 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9693,7 +9696,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9714,7 +9717,7 @@
         <v>132</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9722,10 +9725,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9748,13 +9751,13 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9805,7 +9808,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>89</v>
@@ -9826,7 +9829,7 @@
         <v>132</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -9834,10 +9837,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9863,16 +9866,16 @@
         <v>186</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9897,13 +9900,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9921,7 +9924,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9950,10 +9953,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9976,19 +9979,19 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10037,7 +10040,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource TDDUIGoal permettant de représenter les attentes de l'usager.</t>
+    <t>Profil de la ressource Goal permettant de représenter les attentes pour un usager.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -517,7 +517,7 @@
     <t>Allows identification of the goal as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t>identifiantAttente</t>
+    <t>idAttente</t>
   </si>
   <si>
     <t>.id</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -473,6 +473,22 @@
   </si>
   <si>
     <t>ProjetPersonnalise</t>
+  </si>
+  <si>
+    <t>Goal.extension:pieceJointeAttente</t>
+  </si>
+  <si>
+    <t>pieceJointeAttente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+</t>
+  </si>
+  <si>
+    <t>Pièce jointe</t>
+  </si>
+  <si>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>Goal.modifierExtension</t>
@@ -1709,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2906,11 +2922,13 @@
         <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2923,26 +2941,22 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2990,7 +3004,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2999,7 +3013,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>140</v>
@@ -3011,7 +3025,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3019,45 +3033,45 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3106,7 +3120,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3118,27 +3132,27 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3146,7 +3160,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
@@ -3161,16 +3175,20 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3218,50 +3236,50 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3273,7 +3291,7 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>171</v>
@@ -3281,9 +3299,7 @@
       <c r="M14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3320,40 +3336,40 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3368,26 +3384,26 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>176</v>
@@ -3396,11 +3412,9 @@
         <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3424,52 +3438,52 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3477,10 +3491,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3497,25 +3511,25 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3540,13 +3554,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3564,7 +3578,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3582,10 +3596,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3593,10 +3607,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3604,7 +3618,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3619,19 +3633,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3641,10 +3655,10 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3656,13 +3670,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3680,7 +3694,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3698,10 +3712,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3709,10 +3723,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3735,18 +3749,20 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3755,10 +3771,10 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3794,7 +3810,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3812,10 +3828,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3823,10 +3839,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3834,7 +3850,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -3849,15 +3865,17 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3870,7 +3888,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -3906,7 +3924,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3924,10 +3942,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3935,10 +3953,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3961,17 +3979,15 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>225</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4020,7 +4036,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4038,10 +4054,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4049,10 +4065,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4060,7 +4076,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4069,26 +4085,24 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4112,13 +4126,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4136,10 +4150,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4154,21 +4168,21 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4176,7 +4190,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4185,22 +4199,26 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4224,13 +4242,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4248,10 +4266,10 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4266,21 +4284,21 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4291,7 +4309,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4303,18 +4321,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4338,13 +4354,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4362,13 +4378,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4383,18 +4399,18 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4405,7 +4421,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4417,19 +4433,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4454,13 +4468,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4478,13 +4492,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4499,18 +4513,18 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4518,7 +4532,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
@@ -4533,19 +4547,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4570,13 +4584,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4594,10 +4608,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -4612,21 +4626,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4634,7 +4648,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4646,19 +4660,23 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4682,13 +4700,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4706,10 +4724,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -4718,38 +4736,38 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4761,7 +4779,7 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>171</v>
@@ -4769,9 +4787,7 @@
       <c r="M27" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4808,40 +4824,40 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4849,14 +4865,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4872,23 +4888,21 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4924,19 +4938,19 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4948,16 +4962,16 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4965,10 +4979,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4979,7 +4993,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4991,19 +5005,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5052,13 +5066,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5067,13 +5081,13 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5081,10 +5095,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5092,7 +5106,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5107,17 +5121,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5166,10 +5182,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>89</v>
@@ -5181,24 +5197,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5206,7 +5222,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5221,17 +5237,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5256,13 +5272,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5280,10 +5296,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>89</v>
@@ -5298,21 +5314,21 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5323,7 +5339,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5332,22 +5348,20 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5372,13 +5386,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5396,19 +5410,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5420,15 +5434,15 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5439,7 +5453,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5451,16 +5465,20 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5508,19 +5526,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5529,7 +5547,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5537,21 +5555,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5563,7 +5581,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>171</v>
@@ -5571,9 +5589,7 @@
       <c r="M34" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5622,28 +5638,28 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5651,14 +5667,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5671,26 +5687,24 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>176</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5738,7 +5752,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5759,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5774,35 +5788,39 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5826,43 +5844,43 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5871,7 +5889,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5905,17 +5923,15 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5940,13 +5956,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5973,7 +5989,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -5993,10 +6009,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6019,18 +6035,18 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>338</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6054,10 +6070,10 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6078,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6087,7 +6103,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6102,15 +6118,15 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6133,18 +6149,18 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6192,7 +6208,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6216,15 +6232,15 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6244,10 +6260,10 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>165</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>347</v>
@@ -6306,7 +6322,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6330,15 +6346,15 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6358,10 +6374,10 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>352</v>
@@ -6420,7 +6436,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6444,15 +6460,15 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6463,7 +6479,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6472,21 +6488,21 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6534,13 +6550,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6555,18 +6571,18 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6574,7 +6590,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6589,19 +6605,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6638,17 +6652,19 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6666,21 +6682,21 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6688,10 +6704,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6703,16 +6719,20 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>166</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6748,40 +6768,38 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6789,10 +6807,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6800,10 +6818,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6815,13 +6833,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6860,40 +6878,40 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF45" t="s" s="2">
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6901,14 +6919,12 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6917,7 +6933,7 @@
         <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6929,13 +6945,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6974,19 +6990,19 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7015,21 +7031,23 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>381</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7038,20 +7056,18 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N47" t="s" s="2">
         <v>384</v>
       </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7100,28 +7116,28 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7129,10 +7145,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7155,15 +7171,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7212,7 +7230,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7233,7 +7251,7 @@
         <v>132</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7241,10 +7259,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7252,7 +7270,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7267,13 +7285,13 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7324,10 +7342,10 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>89</v>
@@ -7345,7 +7363,7 @@
         <v>132</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7353,14 +7371,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7378,23 +7394,19 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7442,13 +7454,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7457,13 +7469,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7471,18 +7483,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7497,16 +7511,20 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7554,28 +7572,28 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7583,10 +7601,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7594,10 +7612,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7609,13 +7627,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7654,40 +7672,40 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7695,14 +7713,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7711,7 +7727,7 @@
         <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7723,13 +7739,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7768,19 +7784,19 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7809,18 +7825,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>89</v>
@@ -7835,13 +7853,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>165</v>
+        <v>382</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7892,19 +7910,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7913,7 +7931,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7921,10 +7939,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7935,7 +7953,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7947,13 +7965,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7992,40 +8010,40 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF55" t="s" s="2">
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8033,10 +8051,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8044,10 +8062,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8059,24 +8077,22 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -8106,31 +8122,31 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8139,7 +8155,7 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8147,10 +8163,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8158,7 +8174,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8173,25 +8189,27 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>77</v>
@@ -8206,32 +8224,34 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>89</v>
@@ -8240,7 +8260,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8257,10 +8277,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8280,20 +8300,18 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8303,7 +8321,7 @@
         <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>77</v>
@@ -8318,13 +8336,11 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8342,7 +8358,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8360,10 +8376,10 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8371,10 +8387,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8397,15 +8413,17 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8454,7 +8472,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8475,7 +8493,7 @@
         <v>132</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8483,10 +8501,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8494,7 +8512,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>89</v>
@@ -8509,13 +8527,13 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8566,10 +8584,10 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>89</v>
@@ -8587,7 +8605,7 @@
         <v>132</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8595,23 +8613,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8620,23 +8636,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8684,13 +8696,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8699,13 +8711,13 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8713,12 +8725,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8727,7 +8741,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8739,16 +8753,20 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>166</v>
+        <v>432</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8796,28 +8814,28 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8825,10 +8843,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8836,10 +8854,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8851,13 +8869,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8896,40 +8914,40 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF63" t="s" s="2">
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -8937,14 +8955,12 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
@@ -8953,7 +8969,7 @@
         <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -8965,13 +8981,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>377</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9010,19 +9026,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9051,18 +9067,20 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9077,13 +9095,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>165</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9134,19 +9152,19 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9155,7 +9173,7 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9163,10 +9181,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9177,7 +9195,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9189,13 +9207,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9234,40 +9252,40 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF66" t="s" s="2">
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9275,10 +9293,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9286,10 +9304,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9301,24 +9319,22 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -9348,31 +9364,31 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9381,7 +9397,7 @@
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9389,10 +9405,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9400,7 +9416,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>89</v>
@@ -9415,25 +9431,27 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>77</v>
@@ -9448,32 +9466,34 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>89</v>
@@ -9482,7 +9502,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9499,10 +9519,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9522,20 +9542,18 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9545,7 +9563,7 @@
         <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>77</v>
@@ -9560,13 +9578,11 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9584,7 +9600,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9602,10 +9618,10 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9613,10 +9629,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9639,15 +9655,17 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9696,7 +9714,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9717,7 +9735,7 @@
         <v>132</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9725,10 +9743,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9736,7 +9754,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -9751,13 +9769,13 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9808,10 +9826,10 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>89</v>
@@ -9829,7 +9847,7 @@
         <v>132</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -9837,10 +9855,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9848,10 +9866,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9860,23 +9878,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>186</v>
+        <v>399</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -9900,13 +9914,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9924,13 +9938,13 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
@@ -9942,10 +9956,10 @@
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -9953,10 +9967,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9979,19 +9993,19 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10016,13 +10030,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10040,7 +10054,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10064,6 +10078,122 @@
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,7 +488,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>Goal.modifierExtension</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1177,7 +1177,7 @@
     <t>There's a need to capture information about the goal that doesn't actually describe the goal.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:extension('https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note').value}
+    <t xml:space="preserve">pattern:extension('https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator').value}
 </t>
   </si>
   <si>
@@ -1193,23 +1193,23 @@
     <t>Goal.note.extension</t>
   </si>
   <si>
-    <t>Goal.note.extension:TDDUIGoalNoteExtension</t>
-  </si>
-  <si>
-    <t>TDDUIGoalNoteExtension</t>
+    <t>Goal.note.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>TDDUIDiscriminator</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator}
 </t>
   </si>
   <si>
-    <t>TDDUI Goal Note</t>
-  </si>
-  <si>
-    <t>Extension pour discriminer l'élément Goal.note.</t>
+    <t>TDDUI Discriminator Extension</t>
+  </si>
+  <si>
+    <t>Extension pour discriminer les éléments CarePlan.supportingInfo et Goal.note.</t>
   </si>
   <si>
     <t>Goal.note.author[x]</t>
@@ -1287,22 +1287,22 @@
     <t>Goal.note:origineAttente.extension</t>
   </si>
   <si>
-    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension</t>
-  </si>
-  <si>
-    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.id</t>
+    <t>Goal.note:origineAttente.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>Goal.note:origineAttente.extension:TDDUIDiscriminator.id</t>
   </si>
   <si>
     <t>Goal.note.extension.id</t>
   </si>
   <si>
-    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.extension</t>
+    <t>Goal.note:origineAttente.extension:TDDUIDiscriminator.extension</t>
   </si>
   <si>
     <t>Goal.note.extension.extension</t>
   </si>
   <si>
-    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.url</t>
+    <t>Goal.note:origineAttente.extension:TDDUIDiscriminator.url</t>
   </si>
   <si>
     <t>Goal.note.extension.url</t>
@@ -1317,13 +1317,13 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator</t>
   </si>
   <si>
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Goal.note:origineAttente.extension:TDDUIGoalNoteExtension.value[x]</t>
+    <t>Goal.note:origineAttente.extension:TDDUIDiscriminator.value[x]</t>
   </si>
   <si>
     <t>Goal.note.extension.value[x]</t>
@@ -1335,7 +1335,15 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-note-vs</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs"/&gt;
+    &lt;code value="origineAttente"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-attente-note-vs</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1365,19 +1373,27 @@
     <t>Goal.note:commentaireAttente.extension</t>
   </si>
   <si>
-    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension</t>
-  </si>
-  <si>
-    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.id</t>
-  </si>
-  <si>
-    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.extension</t>
-  </si>
-  <si>
-    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.url</t>
-  </si>
-  <si>
-    <t>Goal.note:commentaireAttente.extension:TDDUIGoalNoteExtension.value[x]</t>
+    <t>Goal.note:commentaireAttente.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIDiscriminator.id</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIDiscriminator.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIDiscriminator.url</t>
+  </si>
+  <si>
+    <t>Goal.note:commentaireAttente.extension:TDDUIDiscriminator.value[x]</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs"/&gt;
+    &lt;code value="commentaireAttente"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Goal.note:commentaireAttente.author[x]</t>
@@ -1734,9 +1750,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.89453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.38671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1759,9 +1775,9 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="83.765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="86.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -8303,7 +8319,7 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>423</v>
@@ -8321,7 +8337,7 @@
         <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>77</v>
@@ -8340,7 +8356,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8387,7 +8403,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>385</v>
@@ -8501,7 +8517,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>392</v>
@@ -8613,7 +8629,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>398</v>
@@ -8725,13 +8741,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>368</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
@@ -8756,7 +8772,7 @@
         <v>369</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>371</v>
@@ -8829,7 +8845,7 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>375</v>
@@ -8843,7 +8859,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>377</v>
@@ -8955,7 +8971,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>378</v>
@@ -9067,7 +9083,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>378</v>
@@ -9181,7 +9197,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>411</v>
@@ -9293,7 +9309,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>413</v>
@@ -9405,7 +9421,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>415</v>
@@ -9519,7 +9535,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>422</v>
@@ -9545,7 +9561,7 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>423</v>
@@ -9563,7 +9579,7 @@
         <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>77</v>
@@ -9582,7 +9598,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9600,7 +9616,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9629,7 +9645,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>385</v>
@@ -9743,7 +9759,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>392</v>
@@ -9855,7 +9871,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>398</v>
@@ -9967,10 +9983,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9996,16 +10012,16 @@
         <v>191</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10033,7 +10049,7 @@
         <v>254</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>273</v>
@@ -10054,7 +10070,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10083,10 +10099,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10109,19 +10125,19 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10170,7 +10186,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,7 +488,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Extension permettant de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>Goal.modifierExtension</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
